--- a/prueba15/prueba15.xlsx
+++ b/prueba15/prueba15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\enkro\P00106-ENKROSS_PRUEBA3_AUTOMATIZACION\prueba15\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74DE801-82D0-42D9-804A-76916B56A5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2494F55B-AD67-42E5-81F7-3AF46ED9D38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-180" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{A51B9455-0DA1-4262-9C8D-5E63C3C80935}"/>
   </bookViews>
   <sheets>
     <sheet name="diagrama1" sheetId="1" r:id="rId1"/>
@@ -36,88 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="45">
-  <si>
-    <t>Elem1</t>
-  </si>
-  <si>
-    <t>Elem2</t>
-  </si>
-  <si>
-    <t>Elem3</t>
-  </si>
-  <si>
-    <t>Elem4</t>
-  </si>
-  <si>
-    <t>Mang1</t>
-  </si>
-  <si>
-    <t>Mang2</t>
-  </si>
-  <si>
-    <t>Mang3</t>
-  </si>
-  <si>
-    <t>Mang5</t>
-  </si>
-  <si>
-    <t>Elem6</t>
-  </si>
-  <si>
-    <t>Mang6</t>
-  </si>
-  <si>
-    <t>Elem7</t>
-  </si>
-  <si>
-    <t>Mang7</t>
-  </si>
-  <si>
-    <t>Elem8</t>
-  </si>
-  <si>
-    <t>Mang8</t>
-  </si>
-  <si>
-    <t>Elem9</t>
-  </si>
-  <si>
-    <t>Mang9</t>
-  </si>
-  <si>
-    <t>Elem10</t>
-  </si>
-  <si>
-    <t>Mang10</t>
-  </si>
-  <si>
-    <t>Elem11</t>
-  </si>
-  <si>
-    <t>Mang11</t>
-  </si>
-  <si>
-    <t>Elem12</t>
-  </si>
-  <si>
-    <t>Mang12</t>
-  </si>
-  <si>
-    <t>Elem13</t>
-  </si>
-  <si>
-    <t>Elem5</t>
-  </si>
-  <si>
-    <t>Mang4</t>
-  </si>
-  <si>
-    <t>Mang13</t>
-  </si>
-  <si>
-    <t>Elem14</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="43">
   <si>
     <t>Proyecto</t>
   </si>
@@ -140,37 +59,112 @@
     <t>MANGUERA</t>
   </si>
   <si>
+    <t>Elemento1</t>
+  </si>
+  <si>
+    <t>Elemento2</t>
+  </si>
+  <si>
+    <t>Elemento3</t>
+  </si>
+  <si>
+    <t>Elemento4</t>
+  </si>
+  <si>
+    <t>Elemento5</t>
+  </si>
+  <si>
+    <t>Elemento6</t>
+  </si>
+  <si>
+    <t>Elemento7</t>
+  </si>
+  <si>
+    <t>Elemento8</t>
+  </si>
+  <si>
+    <t>Elemento9</t>
+  </si>
+  <si>
+    <t>Elemento10</t>
+  </si>
+  <si>
+    <t>Elemento11</t>
+  </si>
+  <si>
+    <t>Elemento12</t>
+  </si>
+  <si>
+    <t>Elemento13</t>
+  </si>
+  <si>
+    <t>Elemento14</t>
+  </si>
+  <si>
+    <t>Manguera1</t>
+  </si>
+  <si>
+    <t>Manguera2</t>
+  </si>
+  <si>
+    <t>Manguera3</t>
+  </si>
+  <si>
+    <t>Manguera4</t>
+  </si>
+  <si>
+    <t>Manguera5</t>
+  </si>
+  <si>
+    <t>Manguera6</t>
+  </si>
+  <si>
+    <t>Manguera7</t>
+  </si>
+  <si>
+    <t>Manguera8</t>
+  </si>
+  <si>
+    <t>Manguera9</t>
+  </si>
+  <si>
+    <t>Manguera10</t>
+  </si>
+  <si>
+    <t>Manguera11</t>
+  </si>
+  <si>
+    <t>Manguera12</t>
+  </si>
+  <si>
+    <t>Manguera13</t>
+  </si>
+  <si>
     <t>Device1</t>
   </si>
   <si>
-    <t>Cable1</t>
+    <t>Hose2</t>
+  </si>
+  <si>
+    <t>Hose1</t>
   </si>
   <si>
     <t>Device2</t>
   </si>
   <si>
-    <t>Cable2</t>
-  </si>
-  <si>
     <t>Device3</t>
   </si>
   <si>
+    <t>Hose3</t>
+  </si>
+  <si>
     <t>Device4</t>
   </si>
   <si>
-    <t>Cable3</t>
-  </si>
-  <si>
-    <t>Cable4</t>
+    <t>Hose4</t>
   </si>
   <si>
     <t>Device5</t>
-  </si>
-  <si>
-    <t>Cable5</t>
-  </si>
-  <si>
-    <t>Device6</t>
   </si>
 </sst>
 </file>
@@ -255,7 +249,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +281,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Énfasis4" xfId="4" builtinId="42"/>
@@ -306,6 +306,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,6 +358,64 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>144780</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>160020</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>129540</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>167640</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="EjecutarScript" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -673,12 +735,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4692FC6F-E8B7-42EA-917E-25410140FE65}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -688,23 +750,23 @@
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="E3" s="1" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F3" s="4">
         <v>45419</v>
@@ -712,85 +774,85 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="V6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="X6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="Z6" s="1" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="AA6" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
@@ -798,15 +860,23 @@
         <v>34</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="E7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -830,31 +900,31 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -877,25 +947,25 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -923,23 +993,18 @@
         <v>34</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="C10" s="11" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>39</v>
-      </c>
+      <c r="F10"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -963,13 +1028,13 @@
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -977,7 +1042,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="J11" s="12"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -997,41 +1062,45 @@
       <c r="AA11" s="2"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
+      <c r="A12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
@@ -1049,158 +1118,117 @@
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="O13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="T13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="V13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="W13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="X13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA13" s="8" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R14" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="U14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="V14" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="W14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="X14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="Z14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA14" s="8" t="s">
-        <v>26</v>
+      <c r="A14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>38</v>
-      </c>
       <c r="F15"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
@@ -1277,14 +1305,39 @@
     </row>
     <row r="40" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F40"/>
-    </row>
-    <row r="41" spans="6:6" x14ac:dyDescent="0.3">
-      <c r="F41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1027" r:id="rId4" name="EjecutarScript">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>144780</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>160020</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>129540</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>167640</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1027" r:id="rId4" name="EjecutarScript"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
 
